--- a/chatbot replies.xlsx
+++ b/chatbot replies.xlsx
@@ -24,7 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="566">
+  <si>
+    <t>Decoded sequence: sos eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos one punch man is the only one at the top of my head that meets these requirements eos</t>
+  </si>
   <si>
     <t>User input</t>
   </si>
@@ -89,6 +95,12 @@
     <t>16K comments, batch size of 500, and 30 epochs</t>
   </si>
   <si>
+    <t>Input sequence: so if you ve watched anything similar let me know thanks here s my mal http myanimelistnetanimelistdingadong status 7 eos</t>
+  </si>
+  <si>
+    <t>Input sequence: http myanimelistnetanime22055gakkou no kaidan recaps anyone have any idea of its existence or is this a made up title eos</t>
+  </si>
+  <si>
     <t>sos i i the</t>
   </si>
   <si>
@@ -228,6 +240,1488 @@
   </si>
   <si>
     <t>t i c e e s s t t h h e e t t i i c c eos</t>
+  </si>
+  <si>
+    <t>16K comments, batch size of 500, and 60 epochs</t>
+  </si>
+  <si>
+    <t>Decoded sequence: favorite gate nite q</t>
+  </si>
+  <si>
+    <t>Input sequence: wait for zeta btw did anyone else like the sound of char s gun i thought it was funny eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: an to the of if</t>
+  </si>
+  <si>
+    <t>Input sequence: all of your feedback on previous fanarts that i submitted amira and hanekawa i really appreciate it http madeleineinkdeviantartcomartsailormoon591282240 eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: performed please moderators messagecompose you</t>
+  </si>
+  <si>
+    <t>Input sequence: sos goat simulator the anime eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos mitsuaki kanno director of neon generation avangaldon eos</t>
+  </si>
+  <si>
+    <t>Input sequence: utter lack of modesty interested to find out what his deal is and why only sora can see him eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos that s really cool where did you find this eos</t>
+  </si>
+  <si>
+    <t>Input sequence: me i probably would post at 10 stick around for 30 minutes then go back on at 6am 00cst eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos kodomo no jikan just because eos</t>
+  </si>
+  <si>
+    <t>Input sequence: you mean besides singing all the jojo openings while washing dishes and doing jojo poses every chance i get eos</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Input sequence: murder mystery the ghost warehouse and jean finding a girlfriend it was so funny i had to mention it eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: no to to the which</t>
+  </si>
+  <si>
+    <t>Input sequence: sos you my friend are an amazing person eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos that i to</t>
+  </si>
+  <si>
+    <t>Input sequence: sos watch some osomatsusan mmds and unironically use 3 eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: it a like it to eos</t>
+  </si>
+  <si>
+    <t>Input sequence: they ve got some serious tones and have been enjoyed by many good luck with finding your favourite anime eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos punch the of</t>
+  </si>
+  <si>
+    <t>Input sequence: any others that take a similar approach to comedy i love main characters that have monologues by the way eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos suggestions about eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos another although billed as a horror it s mostly a comedy eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: and the in last episodes eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos i knew this was getting an anime adaptation sooner or later eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos of thread of</t>
+  </si>
+  <si>
+    <t>Input sequence: sos why do these videos always go up while i m in class eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: uploaded onto channel uploaded</t>
+  </si>
+  <si>
+    <t>Input sequence: else saves me the time of digging stuff up myself xd ca nt wait to read the next one eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: is and the</t>
+  </si>
+  <si>
+    <t>Input sequence: but i actually said woah out loud in a room by myself when i saw this very nice work eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos job</t>
+  </si>
+  <si>
+    <t>Input sequence: sos erased meets steins gate meets shoujo eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: episode to the the the eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos i started this season actually and i m only watching erased dagashi kashi and luck amp logic eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: the the the i   eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos this is amazing eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos that great to is</t>
+  </si>
+  <si>
+    <t>Input sequence: sos wat eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is is is of eos</t>
+  </si>
+  <si>
+    <t>Input sequence: studio expected it to be that popular it may be based on osomatsukun but the humor is 100 different eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos one kinda of of eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos tk from angel beats eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: i is a shit of eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos kaiji nose is the best nose anything else is sacrilege eos</t>
+  </si>
+  <si>
+    <t>Input sequence: their matchmaking prowess they eventually find love for eachother and have a lot to explain i call it nisekekkon eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: i to to the i</t>
+  </si>
+  <si>
+    <t>Input sequence: tricks but he is able to fight up to par with others heroes who are much stronger than him eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: is is i them on eos</t>
+  </si>
+  <si>
+    <t>Input sequence: all the salt in my soul ca nt deny it generation of miracles salt http 2bpblogspotcomqxu issq864u9hwnugadiaaaaaaaanuys gt64zp8hcs1600rainbowepsomsalts 2 eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos happened oshino to</t>
+  </si>
+  <si>
+    <t>Input sequence: create a mal account step 2 look at the flowchart https iimgurcomq9xjv4pjpg step 3 watch stuff that interests you eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: to to the the use</t>
+  </si>
+  <si>
+    <t>Input sequence: show it s episodic i guess no one bothered with the recap thus you ca nt find it online eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: i stories the far which eos</t>
+  </si>
+  <si>
+    <t>Input sequence: i clicked on your link i m a huge mononoke fan and ca nt wait to see that one eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos like a eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos great way to start tuesday eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is for</t>
+  </si>
+  <si>
+    <t>Input sequence: http iimgurcomlrdanybgif shinobu http iimgurcommyn7p3sgifv catgirls http iimgurcomqbz5dl6gif azusa http imgurcomxqz1s0k chitanda s eyes https dmaxfilerooysqvpmfyrwebm cgdct http iimgurcomcybndupgif eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: lighter bibi simple now in eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos orekibois http iimgurcomfhtavk8gif eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos s be</t>
+  </si>
+  <si>
+    <t>Input sequence: https imganimebracketcomzpujpg greed https imganimebracketcom10tzjpg rider https imganimebracketcomzrgjpg james https imganimebracketcom10objpg ryuuji takasu https imganimebracketcomzvbjpg deishu kaiki https imganimebracketcom10wrjpg eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos love why</t>
+  </si>
+  <si>
+    <t>Input sequence: is steve blum as mugen makes for one of his greatest roles what episode s did you like most eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos s be the everything</t>
+  </si>
+  <si>
+    <t>Input sequence: umbrella or a notebook boys holding hands and blushing a slow pan as two mecha dogfight in the distance eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos favorite for</t>
+  </si>
+  <si>
+    <t>Input sequence: sos toei was one of the first animation studios shit lol now everyone just bashes them eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos to later</t>
+  </si>
+  <si>
+    <t>Input sequence: sos watch the episode of marvel s disk avengers where he appeared in eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos the the after http</t>
+  </si>
+  <si>
+    <t>Input sequence: be beat now is the time to take action and destroy kamina s fake confidence by voting for dio eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was a the</t>
+  </si>
+  <si>
+    <t>Input sequence: sos cup1 it s too early in the day for this eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos to the is the eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos looking to find an available weeb name on league of legends eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos a i</t>
+  </si>
+  <si>
+    <t>Input sequence: sos fucking james alright alright he ll get my vote eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: i the lost yato the eos</t>
+  </si>
+  <si>
+    <t>Input sequence: ok but should be tagged accordingly failing to comply with the rules may result in your comment being removed eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: episode episode and the episode</t>
+  </si>
+  <si>
+    <t>Input sequence: sos at least steampunkish or steampunk influenced also eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos a space the in</t>
+  </si>
+  <si>
+    <t>Input sequence: relaxing episode better to taste a bit of sugar in between rather than eating bitter stuff right after another eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: let one iimgurcomfsz9llijpg seems is</t>
+  </si>
+  <si>
+    <t>Input sequence: them cool or just silly they should assume every insanely buff guy they meet is an enemystand user lol eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: after i to 4 is</t>
+  </si>
+  <si>
+    <t>Input sequence: sos toradora eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is cool a of</t>
+  </si>
+  <si>
+    <t>Input sequence: sos gurren lagann so we can all finally reach our potential eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is april spoiler with</t>
+  </si>
+  <si>
+    <t>Input sequence: the female dressingacting male for reasons ex yukimura http myanimelistnetcharacter38941yukimura kusunoki konoe http myanimelistnetcharacter41374subaru konoe tsugumi http myanimelistnetcharacter58885seishirou tsugumi eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos the youtubeisiu2ccrra4 are http eos</t>
+  </si>
+  <si>
+    <t>Input sequence: no victims today yey in memoriam wolfgang grimmer and yamato ishida out on the nomination phase i know unbelivable eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos do jordy</t>
+  </si>
+  <si>
+    <t>Input sequence: sos fatekaleid episode 6 anyone spoiler s archer illya vs saber alter eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: episode more the is to eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos 8up soft drink from the opm manga eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos s that a</t>
+  </si>
+  <si>
+    <t>i do nt think i am going to win any votes i care about in the next few rounds eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uploaded it onto there youtube channel edit nevermind it was uploaded 4 days ago on there channel teehee teehee eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sos my god krillinvegetatrunks and cell are so great they are much better then in original series eos</t>
+  </si>
+  <si>
+    <t>sos shigatsu wa kimi no uso i d temporarily raise the sea level by a meter eos</t>
+  </si>
+  <si>
+    <t>sos wow both joe and rikishi was there cool list noses ai nt talked about that much eos</t>
+  </si>
+  <si>
+    <t>ve watched already cowboy bebop rosario vampire death note soul eater cardfight vanguard and like half of gurren laggan eos</t>
+  </si>
+  <si>
+    <t>wait for zeta btw did anyone else like the sound of char s gun i thought it was funny eos</t>
+  </si>
+  <si>
+    <t>all of your feedback on previous fanarts that i submitted amira and hanekawa i really appreciate it http madeleineinkdeviantartcomartsailormoon591282240 eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w 776 terrible womanizer https mediagiphycommedia36tjhkehimdsagiphygif fellow donut lover http 49mediatumblrcoma05cd4405328a2a353a99e44e41e0d1btumblr ms5cofssjh1szqepgo1 500gif quite the intimidator http iimgurcomez4gznbwebm plz eos</t>
+  </si>
+  <si>
+    <t>have become sleeper hits let me know if you guys recommend anything i have nt mentioned and why thanks eos</t>
+  </si>
+  <si>
+    <t>sos gt that s my secret mokuba i m always butt hurt eos</t>
+  </si>
+  <si>
+    <t>sos ponytails http iimgurcomse7dkctgif ponytails http iimgurcomnh3eulhpng ponytails http iimgurcomrzlkbx4jpg ponytails http iimgurcomumvndzngifv eos</t>
+  </si>
+  <si>
+    <t>sos a certain tiger eos</t>
+  </si>
+  <si>
+    <t>and spirit edit also anything with the description normal guy does normal things until suddenly mysterious hot girl appears eos</t>
+  </si>
+  <si>
+    <t>like another challenger for mal s 1 throne has appeared the only question is how well this candidate fares eos</t>
+  </si>
+  <si>
+    <t>was a millionaire i d take 310 one for ever pushup squat situp and km run everyday by saitama eos</t>
+  </si>
+  <si>
+    <t>sos buy a santa super sonico figure no ragrets eos</t>
+  </si>
+  <si>
+    <t>gintoki still in but i think i wo nt be able to say the same about dio tomorrow</t>
+  </si>
+  <si>
+    <t>sos love eos</t>
+  </si>
+  <si>
+    <t>sos how can i make this image the album cover on itunes eos</t>
+  </si>
+  <si>
+    <t>all the same some motherfucking</t>
+  </si>
+  <si>
+    <t>sos purchase my my</t>
+  </si>
+  <si>
+    <t>sos to if the</t>
+  </si>
+  <si>
+    <t>sos from a the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> favorite gate nite q</t>
+  </si>
+  <si>
+    <t>an for especially and is</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sos he the eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sos eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> love involves the repeat a</t>
+  </si>
+  <si>
+    <t>sos ed right to</t>
+  </si>
+  <si>
+    <t>over though ryuuji to the</t>
+  </si>
+  <si>
+    <t>sos s the are count</t>
+  </si>
+  <si>
+    <t>sos a simple a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sos the to to it eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sos like the to</t>
+  </si>
+  <si>
+    <t>sos though part of with</t>
+  </si>
+  <si>
+    <t>sos is reminded</t>
+  </si>
+  <si>
+    <t>the to the at the eos</t>
+  </si>
+  <si>
+    <t>to to that really the eos</t>
+  </si>
+  <si>
+    <t>i absolutely to s i eos</t>
+  </si>
+  <si>
+    <t>sos s nt like</t>
+  </si>
+  <si>
+    <t>be show i of to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoid watched i i i eos</t>
+  </si>
+  <si>
+    <t>the war guess no the eos</t>
+  </si>
+  <si>
+    <t>a the of with in eos</t>
+  </si>
+  <si>
+    <t>sos shit best http</t>
+  </si>
+  <si>
+    <t>sos is bomberman</t>
+  </si>
+  <si>
+    <t>i page like other that</t>
+  </si>
+  <si>
+    <t>sos is to eos</t>
+  </si>
+  <si>
+    <t>ms is a is is</t>
+  </si>
+  <si>
+    <t>an to the of if</t>
+  </si>
+  <si>
+    <t>performed please moderators messagecompose you</t>
+  </si>
+  <si>
+    <t>sos deserved being also is eos</t>
+  </si>
+  <si>
+    <t>performed please moderators messagecompose</t>
+  </si>
+  <si>
+    <t>maximillion fox the are being</t>
+  </si>
+  <si>
+    <t>sos no iimgurcomrs9w2ujjpg</t>
+  </si>
+  <si>
+    <t>sos is get eos</t>
+  </si>
+  <si>
+    <t>it gets takes the far eos</t>
+  </si>
+  <si>
+    <t>is episode</t>
+  </si>
+  <si>
+    <t>short high of are http</t>
+  </si>
+  <si>
+    <t>event to the series is eos</t>
+  </si>
+  <si>
+    <t>sos is of a</t>
+  </si>
+  <si>
+    <t>sos s http http</t>
+  </si>
+  <si>
+    <t>episode episode it s they eos</t>
+  </si>
+  <si>
+    <t>sos like</t>
+  </si>
+  <si>
+    <t>sos about 2 i</t>
+  </si>
+  <si>
+    <t>sos musume the i</t>
+  </si>
+  <si>
+    <t>my chat and and   eos</t>
+  </si>
+  <si>
+    <t>sos is the ur</t>
+  </si>
+  <si>
+    <t>sos sos sos</t>
+  </si>
+  <si>
+    <t>sos if you want a story about melting try jet fuelkun to steel beamschan eos</t>
+  </si>
+  <si>
+    <t>named madoka for example and i ll give you three guesses as to which nowdead soldier used it first eos</t>
+  </si>
+  <si>
+    <t>hqgif chihaya gaming http 38mediatumblrcome8bb0f17f565d4d3259bfaf9bf30f853tumblr n7p6ta3ils1rifd3ao1 250gif chihaya drinking https uboachannetotsrc1404236701828png edit the idolm ster spoilers yakusoku https mymixtapemoegzwdxfwebm eos</t>
+  </si>
+  <si>
+    <t>shows that aired in fall 2012 too bad most of them had a shit ending or no second season eos</t>
+  </si>
+  <si>
+    <t>managed to fill the gaping hole left by finally catching up to airing gintama which is no small feat eos</t>
+  </si>
+  <si>
+    <t>sos i love nanoha but vita can really get on my nerves some times eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cheese by crazedhobbitd5cw7k9jpg lancer ga shinda smuglancer at least it was to kougami vote best girl kaiki http oi61tinypiccom5ceon4jpg eos</t>
+  </si>
+  <si>
+    <t>sos you know like stuff that really gets your blood pumping eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input sequence: </t>
+  </si>
+  <si>
+    <t>reconcile and for people to find ways to be closer and for potential romance to happen in the future eos</t>
+  </si>
+  <si>
+    <t>Train data</t>
+  </si>
+  <si>
+    <t>Input sequence: sos agil in sao i personally find him the only one in aincrad arc who has a brain eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos my i eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos unravel kukuku eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos the my</t>
+  </si>
+  <si>
+    <t>Input sequence: sos damn this looks good eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is was would</t>
+  </si>
+  <si>
+    <t>Input sequence: and tranquil also interesting how the title is in hiragana instead of katakana considering it s an english title eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos seems everyone the</t>
+  </si>
+  <si>
+    <t>Input sequence: been about a year and a half since i watched the first season so this is good for me eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos that seen holo</t>
+  </si>
+  <si>
+    <t>Input sequence: would ve been a few hours flight from japan to egypt into a journey that takes them 50 days eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: to how 2012 team</t>
+  </si>
+  <si>
+    <t>Input sequence: nt think i watched more currently airing stuff until durarara and the tatami galaxy aired like a year later eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: blood yowamushi my seriously   eos</t>
+  </si>
+  <si>
+    <t>Input sequence: any one else think this or can confirm or deny any common key factors thanks again pittman for hosting eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: and guess understand of</t>
+  </si>
+  <si>
+    <t>Input sequence: sos left side best except for rider got ta vote for rider eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: so maniac the all that eos</t>
+  </si>
+  <si>
+    <t>Input sequence: no tabi last exile and steamboy also the legend of korra if it does nt have to be anime eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos good</t>
+  </si>
+  <si>
+    <t>Input sequence: sos amazing article a lot of the points are the reasons why i love one piece so much eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: again can i   is</t>
+  </si>
+  <si>
+    <t>Input sequence: sos kurosaki ichigo http images5fanpopcomimagephotos29000000ichigowallpaperkurosakiichigo290694271024768jpg and kurosaki mea http staticzerochannetkurosakimeafull1689483jpg eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: ton koutarous   of on</t>
+  </si>
+  <si>
+    <t>Input sequence: sos as much as i do nt like recommending it rebuild of evangelion specifically 20 defrosts rei a lot eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: do think the</t>
+  </si>
+  <si>
+    <t>Input sequence: sos accelerator reason one way road eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos s i for</t>
+  </si>
+  <si>
+    <t>Input sequence: sos pina co lada kanie aisu kyuubu latifah eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos it my to</t>
+  </si>
+  <si>
+    <t>Input sequence: when you see an anime about cute little girls fighting in tanks do you have any other good example eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is who but</t>
+  </si>
+  <si>
+    <t>Input sequence: time ever a couple of hours ago here s the thread https wwwredditcomrjapancomments464491the mythology behind ringu looking for movies eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: cowboy go that episode</t>
+  </si>
+  <si>
+    <t>Input sequence: sos crappily designed amagamithemed one that i should probably update but im way too lazy http myanimelistnetanimelistpeengwin eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: suggestions james i to going eos</t>
+  </si>
+  <si>
+    <t>Input sequence: why well it is nt like we are going to get the rest of the canon any time soon eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: myanimelistnetanime151re here amp i think</t>
+  </si>
+  <si>
+    <t>Input sequence: sos kanie soya and sento isuzu hands down eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: and it this plus his eos</t>
+  </si>
+  <si>
+    <t>Input sequence: https youtubei6fwe3eftrq will forever remain on my shit list some people say it grew on them but for me eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos this the i eos</t>
+  </si>
+  <si>
+    <t>Input sequence: rewatch good on you everyone who watched it all and especially good on you uspiranix for setting this up eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: this episodes     all</t>
+  </si>
+  <si>
+    <t>Input sequence: really confused cause i ve never heard anything like it but what the fuck sort of accent is that eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is my based</t>
+  </si>
+  <si>
+    <t>Input sequence: and causes people to just care for each other and do what s right at least for a time eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos s</t>
+  </si>
+  <si>
+    <t>Input sequence: sos obligatory dango family song https wwwyoutubecomwatch v 0i6yfdgdoc4 hurrystarfish song https wwwyoutubecomwatch v 3 xhisyl9aq clannad spoilers eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: hqgif gaming the i but eos</t>
+  </si>
+  <si>
+    <t>Input sequence: bakemonogatari but my english was nt good enough in the end umineko was shit but the oped were excellent eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was a or this</t>
+  </si>
+  <si>
+    <t>Input sequence: sos time travel udastales will hate it eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: i was a manga wait</t>
+  </si>
+  <si>
+    <t>Input sequence: sos probably accelerator s ability from index eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos a</t>
+  </si>
+  <si>
+    <t>Input sequence: lighter note bibi from love live is my shit right now idol hell is a horrific yet wonderful place eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was moderators to if</t>
+  </si>
+  <si>
+    <t>Input sequence: sos this ed from kaminomi right here https wwwyoutubecomwatch v vxinraldqhk edit spelling eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: gt ops up   give</t>
+  </si>
+  <si>
+    <t>Input sequence: too out of the question while conveying so much really though the achievement was that ending they did it eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: are doing but kiss than eos</t>
+  </si>
+  <si>
+    <t>Input sequence: way through nana the drama can be a little too much for me sometimes but i enjoy it overall eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos neptunia is</t>
+  </si>
+  <si>
+    <t>Input sequence: sos a news app http myanimelistnetanime30721hacka doll the animation eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: living with show     eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos wait you re not jordy sublimer flyingbunsofdoom eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: killed feel vote i</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos re of other</t>
+  </si>
+  <si>
+    <t>Input sequence: honestly this could apply to every it s about some girls in high school show that s actually funny eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is short good for</t>
+  </si>
+  <si>
+    <t>Input sequence: exercise has 37 senses many secret maid guy abilities including usb data transfer proudly wears a maid uniform kukukukuku eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: the participated from season s</t>
+  </si>
+  <si>
+    <t>Input sequence: sos woooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was the week how eos</t>
+  </si>
+  <si>
+    <t>Input sequence: here http myanimelistnetanimelistthe shaqtus i m looking for something to watch next i m open to pretty much anything eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: seirei the really s i eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos sekkou boys can someone shop saitma into the group xd eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos show show be</t>
+  </si>
+  <si>
+    <t>Input sequence: lighting there is more to her hair than what you drew i think not sure though otherwise great job eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: performed can moderators messagecompose you</t>
+  </si>
+  <si>
+    <t>Input sequence: sos myanimelist http myanimelistnetanimelistrxhysteria status 7amp order 4 just a simple design with fma background eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos myanimelistnetanimelist5hine is probably a</t>
+  </si>
+  <si>
+    <t>Input sequence: they are the worst part of the story and possibly one of the only bad writing in the show eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: depth of jonny and</t>
+  </si>
+  <si>
+    <t>Input sequence: do nt think she typifies the trope at least edit also of course shiraishi is best girl please op eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos album eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: show mal really bothered i</t>
+  </si>
+  <si>
+    <t>Input sequence: his bike so he does nt try killing himself animated for such a serious moment it made me smile eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos my shoujo</t>
+  </si>
+  <si>
+    <t>Input sequence: sos i think you forgot about best girl hana http cdnmyanimelistnetscommonuploaded files1443544738ceca3f6530f906e3f13e6ba3458b37ccjpeg eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos a of   way</t>
+  </si>
+  <si>
+    <t>Input sequence: sos gt ctrlf space dandy gt no results wot eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos in i</t>
+  </si>
+  <si>
+    <t>Input sequence: a child he then tries to make everything right but just causes more problem it would be a dramedy eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: an not episode and</t>
+  </si>
+  <si>
+    <t>Input sequence: have any info about if they re going to sell the whole collection of light novels as a package eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was show ever</t>
+  </si>
+  <si>
+    <t>Input sequence: kotourasan and friends go to sing karaoke https youtubecdjcuhuosci t 14s and she tries to sing her own op eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos awful my where</t>
+  </si>
+  <si>
+    <t>Input sequence: voted for james over guy at least it makes it even easier for rider to ride to the top eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos i actually was eos</t>
+  </si>
+  <si>
+    <t>Input sequence: assumed it was going to be a generic high school harem romcom but it turned out to be amazing eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos ange but the</t>
+  </si>
+  <si>
+    <t>Input sequence: wish someone would shoot hikaru so i would nt have to sit here and watch him be an idiot eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: and very my is that</t>
+  </si>
+  <si>
+    <t>Input sequence: oreshura best girl http mdzanimemewpcontentuploads201302124jpg kuudere shares the same voice actor as hitagi edit she sounds like senjougahara xd eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos ark of in   eos</t>
+  </si>
+  <si>
+    <t>Input sequence: no one tripped and grabbed my boobs by accident though so it could be a lot worse more weeb eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was a finale and</t>
+  </si>
+  <si>
+    <t>Input sequence: everyone they are up against are like my least favourite characters from their respective shows ohh well vote oreki eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos is a other</t>
+  </si>
+  <si>
+    <t>Input sequence: sos allucard case closed eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was my to favorite</t>
+  </si>
+  <si>
+    <t>Input sequence: to admit that sora and jibril are fun characters to watch especially jibril and i love her english va eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was the but this</t>
+  </si>
+  <si>
+    <t>Input sequence: follow our mathematics discoveries timeline hell i do nt care if this newton suddenly talks about boolean algebra lol eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos story the was</t>
+  </si>
+  <si>
+    <t>Input sequence: shot up at the end of the card game was your character popping a soul item in dark souls eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos than since   eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: avoid on is the</t>
+  </si>
+  <si>
+    <t>Input sequence: sos something like old miami vice that just convey the feeling of 80s miami eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos guns of i</t>
+  </si>
+  <si>
+    <t>Input sequence: sos i thought the title said noises boy did i get an interesting surprise eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos started and you</t>
+  </si>
+  <si>
+    <t>Input sequence: sos sequel hype eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos a the 100 forward</t>
+  </si>
+  <si>
+    <t>Input sequence: remember a specific track i hated the most but here s just some random one https wwwyoutubecomwatch v fphb63utz5w eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: wwwyoutubecomwatch was</t>
+  </si>
+  <si>
+    <t>Input sequence: ll fly right by i am really enjoying the dogfight like maneuvers constantly being put on by this show eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: a likable bad great</t>
+  </si>
+  <si>
+    <t>Input sequence: place in 80 s s cali rather than florida here is a youtube review https wwwyoutubecomwatch v rbrvp3 zjw8 eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos this thread in a</t>
+  </si>
+  <si>
+    <t>Input sequence: tell me which chapter i should begin reading from also does onizuka officially start dating fuyutsuki in the manga eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos are of i</t>
+  </si>
+  <si>
+    <t>Input sequence: m hoping that levi just being from attack on titan will be enough to overthrow kamina because fuck kamina eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos ll up the if</t>
+  </si>
+  <si>
+    <t>Input sequence: ll post my own idea as a reply to the topic to keep this post as short as possible eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: political conspiracy as the show eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos a card game eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos a my me</t>
+  </si>
+  <si>
+    <t>Input sequence: sos haikyuu its pretty cliche for the sports genre but the characters make it work eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: assumed was about harem even eos</t>
+  </si>
+  <si>
+    <t>Input sequence: through and i liked it a lot better easily the worst dub i ve heard by funimation good show eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos pronouncing anime me s</t>
+  </si>
+  <si>
+    <t>Input sequence: the entire cast of legend of the galactic heroes http digitalconfederacycomimagesarticlesurrdayreviewsloghloghcharacterspng and pretty much everything else about the show eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos cantabile a i</t>
+  </si>
+  <si>
+    <t>Input sequence: that voted for gilgamesh explain why you chose him over accelerator i really want to know salt level 420 eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos started you</t>
+  </si>
+  <si>
+    <t>Input sequence: performed automatically please contact the moderators of this subreddit messagecompose to ranime if you have any questions or concerns eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos on the</t>
+  </si>
+  <si>
+    <t>Input sequence: sos i love psycho pass but i m not too fond of akane eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: time here wanted i time</t>
+  </si>
+  <si>
+    <t>Input sequence: sos uchuu senkan yamato looks interesting eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: to about this next never eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos gt souma vs vash why do you keep doing this to me eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos prepare tomorrow for this</t>
+  </si>
+  <si>
+    <t>Input sequence: commitment to the close up on renge s face for such a prolonged scene was amazing i need crayons eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: lovers people list not be</t>
+  </si>
+  <si>
+    <t>Input sequence: sos i would recommend sore ga seiyuu http myanimelistnetanime29163sore ga seiyuu for some insight eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: enjoy animated     the</t>
+  </si>
+  <si>
+    <t>Input sequence: sos for me it s my neighbor pedoro https youtubewnkipydwzy eos</t>
+  </si>
+  <si>
+    <t>Input sequence: rip best level five http iimgurcomnr4r6pxjpg at least you lost to an opponent with fucking fabulous hair http iimgurcomgmzi3kngifv eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos quite my her</t>
+  </si>
+  <si>
+    <t>Input sequence: of dubs are nt good but madoka thankfully got a good one an i actually prefer the dub here eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: m doing m</t>
+  </si>
+  <si>
+    <t>Input sequence: sos ergo proxy jinrou psychopass bersek baccano eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: shinsekai yori the world http</t>
+  </si>
+  <si>
+    <t>Input sequence: showed up and i said fuck that to the dub voice and rode the sub out to the end eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: of are madoka but   eos</t>
+  </si>
+  <si>
+    <t>Input sequence: serious arc edit 2 uhh i do nt really know why i m getting down voted that hard x eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: ears watching of know to</t>
+  </si>
+  <si>
+    <t>Input sequence: act like military professional compassionate human beings trying to do the right thing when possible i love this series eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos watched a eos</t>
+  </si>
+  <si>
+    <t>Input sequence: was definitely not expecting a sculpture fanart looks like it was worth all your timeeffort as this looks stunning eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos much would eos</t>
+  </si>
+  <si>
+    <t>Input sequence: i read in a very vivid dream i had lately that s as hardcore as it gets i guess eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: office i pretty such   eos</t>
+  </si>
+  <si>
+    <t>Input sequence: sos oreun ji no ni hayaku eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos was my to time</t>
+  </si>
+  <si>
+    <t>Input sequence: too busy to watch again but i can repost my ln comparisons from last year if anyone s interested eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: clock show its of</t>
+  </si>
+  <si>
+    <t>Input sequence: sos so many shows in the thread only one show i have nt seen eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: with click this need to</t>
+  </si>
+  <si>
+    <t>Input sequence: sos right in the middle of finals but 100 worth it looking forward to this eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos are right</t>
+  </si>
+  <si>
+    <t>Input sequence: sos this thread https wwwredditcomranimecomments431emttell me about your favorite anime that is ranked might interest you eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: be it all of</t>
+  </si>
+  <si>
+    <t>Input sequence: sos nonhentai anime either about cute milfscakesols doing cute things or romcomdrama harem with milfscakesols eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: an group wishes but the</t>
+  </si>
+  <si>
+    <t>Input sequence: sos lancer ga shinda eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: w minutes real of http</t>
+  </si>
+  <si>
+    <t>30,000 comments, batch size=500, epochs=100</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos sos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos i did nt like oreimo but kuroneko was good eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos the</t>
+  </si>
+  <si>
+    <t>Should have responded with: ears in the later episodes no comment about the op and ed since i already forget what they are eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos hype is real i was hoping this would get an adaption eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos great job i would definitely buy one if i had the money eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos excited for this can never have enough holo in my life eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: to see how french frenchington ends up joining the team and if they ever get to finish their meal eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: blood and yowamushi pedal at varying points and did nt finish them until a while after they had finished eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: and they are willing to understand once sora proves herself the characters are all real people not including fool eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: so maybe i can get some ideas from all of those who have already made their new style c eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos fma and gosick eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: again and i ll feel like i m back in the thick of the narrative such a wonderful manga eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: ton of koutarous but the presence of one https smediacacheak0pinimgcomoriginals1219ed1219ed717fc2bfce372759bba2fe1cfegif is enough to make it the most interesting party eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: do nt think she typifies the trope at least edit also of course shiraishi is best girl please op eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos shinsuke takasugi why s an eye for an eye eos</t>
+  </si>
+  <si>
+    <t>Decoded sequence: sos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos straight witches http iimgurcomwpovkuwjpg in outbreak company as a reference to strike witches eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: they wrote six potential plotprogression ideas and then rolled a die to determine which one they d go with eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: cowboy to a few friends also added the openings of cowboy bebop and noragami to my anime ost playlist eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: suggestions would be appreciated i ve been wondering what would make it easier to read some on the text eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: myanimelistnetanime151re cutie honey short concentrated amp definitely be something that will make alot of people go a bit topsyturvy eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: this show and 50 holy shit just get some help you arrogant high school bastards gon na be good eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos can this even be considered music https soundcloudcomnottdonlasitkillmebabykillmenobaby funny bc the ed is awesome eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: of more episodes of development sayonara gundam i ll catch you all in 7 years on green noa 2 eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos if i taught trigonometry every problem would be based on a picture of kaiji eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos evangelion s rebuild eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: hqgif chihaya gaming http 38mediatumblrcome8bb0f17f565d4d3259bfaf9bf30f853tumblr n7p6ta3ils1rifd3ao1 250gif chihaya drinking https uboachannetotsrc1404236701828png edit the idolm ster spoilers yakusoku https mymixtapemoegzwdxfwebm eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: was actually fall 2009 when i was about 9 or 10 sword art online la storia della arcana famiglia eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: think ghost stories was really that popular ps its nowhere in the seas as far as i can tell eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos talk no jutsu eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: re neither male nor female trap is a whole other gender i m the reason anime was a mistake eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos summer 2014 watched free eternal summer love stage eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: are you doing it hachi phrasing hachi show the kiss dammit well atleast it happened i ll take it eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos hyperdimensional neptunia is awesome that is all eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: living with different kinds of monster girls and yet it opened up a lot of things especially on ranime eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos shit i like ryuuji but i got ta vote for best girl eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos archer for president best guy http iimgurcomqi1n3m7gif eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos scryed is amazing it s about as good if not better than gurren laggan eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: he also participated in the mobile suit gundam char s counterattack spoiler s axis pushback in char s counterattack eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos i literally just read the manga a week ago and man am i hyped right now for it eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos charlotte meets all your conditions plus it meets the bonus eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos never seen this show but that s pretty fuckin sweet eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: performed automatically please contact the moderators of this subreddit messagecompose to ranime if you have any questions or concerns eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos http myanimelistnetanimelist5hine i enjoy that i can look like a hipster now without doing any work great update eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos wait you re not jordy sublimer flyingbunsofdoom eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: depth if it was nt for the incredible character that his master was that storyline would be beyond boring eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos white album 2 amagami ss has two defrostings eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: show it s episodic i guess no one bothered with the recap thus you ca nt find it online eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos erased meets steins gate meets shoujo eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: commitment to the close up on renge s face for such a prolonged scene was amazing i need crayons eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos no one said gintama yet eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: an ally a young man named mitsuo oh and mc s name is nobu uncle s name is mikio eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: all last summer boy would i write walls of text after every episode now sounds fun let s go eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos the awful phantom requiem for the phantom 2nd op https wwwyoutubecomwatch v xf2ynhaeqvk eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos vote for the king of conquerors he s riding straight to first place eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: case anyone is interested spice and wolf is getting a sequel for its 10th anniversary this year http wwwanimenewsnetworkcomnews20160209spiceandwolflightnovelseriesgetssequelon10thanniversary98489 eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: and seeing hikaru stirs up her feelings again and hikaru s is nt that just what everybody needs now eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: both her ark in kajitsu and in general in rakuen even more so if you play the visual novel eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos dancing to platinum disco on full blast during stops eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos this is a public service announcement fuck kamina vote dio that is all eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: the tamako rewatch or a bad pun just fill this thread with all the cool stuff you really like eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos i was nt the biggest fan of rokka no yuusha but i really liked fremy and hans eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: he is into birdwomen the second has his fiancee died and became a ghost the last is a lesbian eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos less than three months since the last episode this ca nt be right that s too soon eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: avoid getting double references i ve also watched magi bleach trigun and death note realllly loved the last two eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos miami guns http myanimelistnetanime783miami guns maybe eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos at first i thought it was some kind of watchmojo anime video eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos right in the middle of finals but 100 worth it looking forward to this eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: wwwyoutubecomwatch v 8dkljqhcsoe just not any day i m listening to it worst gintama op by a long stretch eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: a very likable person early on this or the following episode should be a turning point in the series eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: what shows should i watch next how much should i be watching daily in order to keep up thanks eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: her paranoia agent s the show became so successful that you can actually buy maromi merchandise in real life eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: time i ll make sure to nominate gintama s gintoki and sket dance s gintoki for all i care eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: political and conspiracy driven shows make me a house of cards esque anime show and i would be happy eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos cram school https youtubeafbns gkhpw so good but makes me sad eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: assumed it was going to be a generic high school harem romcom but it turned out to be amazing eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: incapable of pronouncing ein and zwei correctly do nt remember for which one i ve settled in the end eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos nodame cantabile cowboy bebop and of course trigun first animes i watched still my favorites eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos vote gon that is all eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos now this is my kind of lewd hunchedover eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: time for what i actually wanted to see i liked her fine when she was still a side character eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: to read more i m already excited for the next part and i ve never read anything from them eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos boys prepare ya ll tomorrow begins the battle to take shinji to victory excitedyui eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: lovers and people who are yet to watch it not even hitler would be able to hate that anime eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: enjoy american animated shows almost as equally as i enjoy anime but the majority record similarly as japan does eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos mgronald s eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: even if quite foolish sometimes is a really soft and kindhearted guy vote for best husbando http iimgurcome47sngdjpg 1 eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: m not doing it again it s not worth it and i m pretty much sub only these days eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: shinsekai yori http myanimelistnetanime13125shinsekai yori q shinsekai 20yori trust me that the school setting is very different than usual eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: of dubs are nt good but madoka thankfully got a good one an i actually prefer the dub here eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos oregairu because then society can hate society too eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos how much extra would a custom made one cost eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: office supplies runnerup i passed a toshino kyoko https wwwyoutubecomwatch v nzgqedw7vj0 cosplayer and yelled her name at her eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos gt wild dance of kyoto anime initially read that as kyoani got my hopes up lol nope giveuponlife eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: why so many people think its economics rather than just barter the show its on hold with 3 episodes eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: with dereban click at your own risk http jenlogtumblrcompost98576863914kamiaidouinabahimekodereban speaking of which i really need to rewatch that show eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: sos goddammit every rewatch happens right after i finish a show eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: be immersed in the story sadly it s only two episodes and the novel s translation are barely breathing eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: an unwelcome group of admirers and wishes he could return to normal life as a high schooler the end eos</t>
+  </si>
+  <si>
+    <t>Should have responded with: w 776 terrible womanizer https mediagiphycommedia36tjhkehimdsagiphygif fellow donut lover http 49mediatumblrcoma05cd4405328a2a353a99e44e41e0d1btumblr ms5cofssjh1szqepgo1 500gif quite the intimidator http iimgurcomez4gznbwebm plz eos</t>
+  </si>
+  <si>
+    <t>sos unravel kukuku eos</t>
+  </si>
+  <si>
+    <t>sos agil in sao i personally find him the only one in aincrad arc who has a brain eos</t>
+  </si>
+  <si>
+    <t>sos damn this looks good eos</t>
+  </si>
+  <si>
+    <t>and tranquil also interesting how the title is in hiragana instead of katakana considering it s an english title eos</t>
+  </si>
+  <si>
+    <t>been about a year and a half since i watched the first season so this is good for me eos</t>
+  </si>
+  <si>
+    <t>sos i did nt like oreimo but kuroneko was good eos,</t>
+  </si>
+  <si>
+    <t>ears in the later episodes no comment about the op and ed since i already forget what they are eos</t>
+  </si>
+  <si>
+    <t>sos hype is real i was hoping this would get an adaption eos</t>
+  </si>
+  <si>
+    <t>sos great job i would definitely buy one if i had the money eos</t>
+  </si>
+  <si>
+    <t>sos excited for this can never have enough holo in my life eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos my i eos, </t>
+  </si>
+  <si>
+    <t>sos the my</t>
+  </si>
+  <si>
+    <t>sos is was would</t>
+  </si>
+  <si>
+    <t>sos seems everyone the</t>
+  </si>
+  <si>
+    <t>sos that seen holo</t>
+  </si>
+  <si>
+    <t>Target reply</t>
   </si>
 </sst>
 </file>
@@ -265,7 +1759,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,11 +1782,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,6 +1809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,9 +2090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A34:C80"/>
+  <dimension ref="A2:E632"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,479 +2102,4024 @@
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>5</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>3</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>6</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>7</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>8</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>9</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>10</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>2</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>5</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>7</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>8</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
+        <v>20</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>21</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>22</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>23</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>24</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>25</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>26</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>28</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>29</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>30</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>6</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>10</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>11</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>12</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>14</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>15</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>16</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>17</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>18</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>19</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>20</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>21</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>22</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>23</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>24</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>25</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>26</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>27</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>28</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>29</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>30</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>31</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>32</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>33</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>34</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>35</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>36</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>37</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>38</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>39</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>40</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>41</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>42</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>43</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>46</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>47</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>48</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>49</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>50</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>88</v>
+      </c>
+      <c r="C157" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>90</v>
+      </c>
+      <c r="C158" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>96</v>
+      </c>
+      <c r="C161" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>100</v>
+      </c>
+      <c r="C163" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>102</v>
+      </c>
+      <c r="C164" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>104</v>
+      </c>
+      <c r="C165" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C166" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>108</v>
+      </c>
+      <c r="C168" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>112</v>
+      </c>
+      <c r="C171" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>74</v>
+      </c>
+      <c r="C172" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>22</v>
+      </c>
+      <c r="B176" t="s">
+        <v>119</v>
+      </c>
+      <c r="C176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>123</v>
+      </c>
+      <c r="C178" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>125</v>
+      </c>
+      <c r="C179" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>127</v>
+      </c>
+      <c r="C180" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>28</v>
+      </c>
+      <c r="B182" t="s">
+        <v>131</v>
+      </c>
+      <c r="C182" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>29</v>
+      </c>
+      <c r="B183" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>30</v>
+      </c>
+      <c r="B184" t="s">
+        <v>135</v>
+      </c>
+      <c r="C184" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>31</v>
+      </c>
+      <c r="B185" t="s">
+        <v>137</v>
+      </c>
+      <c r="C185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>32</v>
+      </c>
+      <c r="B186" t="s">
+        <v>139</v>
+      </c>
+      <c r="C186" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>33</v>
+      </c>
+      <c r="B187" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>34</v>
+      </c>
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>36</v>
+      </c>
+      <c r="B190" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>37</v>
+      </c>
+      <c r="B191" t="s">
+        <v>147</v>
+      </c>
+      <c r="C191" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>38</v>
+      </c>
+      <c r="B192" t="s">
+        <v>149</v>
+      </c>
+      <c r="C192" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>39</v>
+      </c>
+      <c r="B193" t="s">
+        <v>151</v>
+      </c>
+      <c r="C193" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>40</v>
+      </c>
+      <c r="B194" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>41</v>
+      </c>
+      <c r="B195" t="s">
+        <v>155</v>
+      </c>
+      <c r="C195" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>42</v>
+      </c>
+      <c r="B196" t="s">
+        <v>157</v>
+      </c>
+      <c r="C196" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>43</v>
+      </c>
+      <c r="B197" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>44</v>
+      </c>
+      <c r="B198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>45</v>
+      </c>
+      <c r="B199" t="s">
+        <v>163</v>
+      </c>
+      <c r="C199" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>46</v>
+      </c>
+      <c r="B200" t="s">
+        <v>165</v>
+      </c>
+      <c r="C200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>47</v>
+      </c>
+      <c r="B201" t="s">
+        <v>167</v>
+      </c>
+      <c r="C201" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>48</v>
+      </c>
+      <c r="B202" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>49</v>
+      </c>
+      <c r="B203" t="s">
+        <v>171</v>
+      </c>
+      <c r="C203" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>50</v>
+      </c>
+      <c r="B204" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>1</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>2</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>3</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>5</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>256</v>
+      </c>
+      <c r="E234" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>257</v>
+      </c>
+      <c r="E235" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>258</v>
+      </c>
+      <c r="E237" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>259</v>
+      </c>
+      <c r="E238" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>262</v>
+      </c>
+      <c r="E243" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>264</v>
+      </c>
+      <c r="E246" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>265</v>
+      </c>
+      <c r="E247" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>266</v>
+      </c>
+      <c r="E249" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>267</v>
+      </c>
+      <c r="E250" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>269</v>
+      </c>
+      <c r="E253" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>270</v>
+      </c>
+      <c r="E255" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>272</v>
+      </c>
+      <c r="E258" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>273</v>
+      </c>
+      <c r="E259" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>274</v>
+      </c>
+      <c r="E261" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>275</v>
+      </c>
+      <c r="E262" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>277</v>
+      </c>
+      <c r="E265" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>278</v>
+      </c>
+      <c r="E267" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>280</v>
+      </c>
+      <c r="E270" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>281</v>
+      </c>
+      <c r="E271" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>282</v>
+      </c>
+      <c r="E273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>283</v>
+      </c>
+      <c r="E274" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>285</v>
+      </c>
+      <c r="E277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>286</v>
+      </c>
+      <c r="E279" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="E282" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+      <c r="E283" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="E285" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="E286" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+      <c r="E289" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="E291" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="E294" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+      <c r="E295" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>296</v>
+      </c>
+      <c r="E297" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>297</v>
+      </c>
+      <c r="E298" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>299</v>
+      </c>
+      <c r="E301" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>300</v>
+      </c>
+      <c r="E303" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>302</v>
+      </c>
+      <c r="E306" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>303</v>
+      </c>
+      <c r="E307" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>304</v>
+      </c>
+      <c r="E309" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>305</v>
+      </c>
+      <c r="E310" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>307</v>
+      </c>
+      <c r="E313" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>308</v>
+      </c>
+      <c r="E315" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>310</v>
+      </c>
+      <c r="E318" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>311</v>
+      </c>
+      <c r="E319" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>312</v>
+      </c>
+      <c r="E321" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>313</v>
+      </c>
+      <c r="E322" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>315</v>
+      </c>
+      <c r="E325" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>316</v>
+      </c>
+      <c r="E327" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>318</v>
+      </c>
+      <c r="E330" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>319</v>
+      </c>
+      <c r="E331" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>320</v>
+      </c>
+      <c r="E333" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>321</v>
+      </c>
+      <c r="E334" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>323</v>
+      </c>
+      <c r="E337" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>169</v>
+      </c>
+      <c r="E339" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>325</v>
+      </c>
+      <c r="E342" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>326</v>
+      </c>
+      <c r="E343" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>327</v>
+      </c>
+      <c r="E345" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>328</v>
+      </c>
+      <c r="E346" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>330</v>
+      </c>
+      <c r="E349" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E350" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>331</v>
+      </c>
+      <c r="E351" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>333</v>
+      </c>
+      <c r="E354" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>334</v>
+      </c>
+      <c r="E355" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>335</v>
+      </c>
+      <c r="E357" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>336</v>
+      </c>
+      <c r="E358" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>338</v>
+      </c>
+      <c r="E361" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>169</v>
+      </c>
+      <c r="E363" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>339</v>
+      </c>
+      <c r="E366" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>340</v>
+      </c>
+      <c r="E367" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>341</v>
+      </c>
+      <c r="E369" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>342</v>
+      </c>
+      <c r="E370" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>343</v>
+      </c>
+      <c r="E373" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>344</v>
+      </c>
+      <c r="E375" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>346</v>
+      </c>
+      <c r="E378" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>347</v>
+      </c>
+      <c r="E379" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>348</v>
+      </c>
+      <c r="E381" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>349</v>
+      </c>
+      <c r="E382" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>350</v>
+      </c>
+      <c r="E385" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>351</v>
+      </c>
+      <c r="E386" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>353</v>
+      </c>
+      <c r="E389" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>354</v>
+      </c>
+      <c r="E391" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>356</v>
+      </c>
+      <c r="E394" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>357</v>
+      </c>
+      <c r="E395" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>358</v>
+      </c>
+      <c r="E397" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>359</v>
+      </c>
+      <c r="E398" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E399" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>361</v>
+      </c>
+      <c r="E401" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>362</v>
+      </c>
+      <c r="E403" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>364</v>
+      </c>
+      <c r="E406" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>365</v>
+      </c>
+      <c r="E407" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>366</v>
+      </c>
+      <c r="E409" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>367</v>
+      </c>
+      <c r="E410" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>369</v>
+      </c>
+      <c r="E413" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>370</v>
+      </c>
+      <c r="E415" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>372</v>
+      </c>
+      <c r="E418" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>373</v>
+      </c>
+      <c r="E419" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>374</v>
+      </c>
+      <c r="E421" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>375</v>
+      </c>
+      <c r="E422" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>376</v>
+      </c>
+      <c r="E425" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E426" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>377</v>
+      </c>
+      <c r="E427" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>379</v>
+      </c>
+      <c r="E430" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>380</v>
+      </c>
+      <c r="E431" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>381</v>
+      </c>
+      <c r="E433" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>382</v>
+      </c>
+      <c r="E434" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>383</v>
+      </c>
+      <c r="E436" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>385</v>
+      </c>
+      <c r="E439" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>386</v>
+      </c>
+      <c r="E440" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>387</v>
+      </c>
+      <c r="E442" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>388</v>
+      </c>
+      <c r="E443" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>390</v>
+      </c>
+      <c r="E446" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>391</v>
+      </c>
+      <c r="E448" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>393</v>
+      </c>
+      <c r="E451" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>394</v>
+      </c>
+      <c r="E452" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>395</v>
+      </c>
+      <c r="E454" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>396</v>
+      </c>
+      <c r="E455" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E456" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>398</v>
+      </c>
+      <c r="E458" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>399</v>
+      </c>
+      <c r="E460" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E462" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>401</v>
+      </c>
+      <c r="E463" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>402</v>
+      </c>
+      <c r="E464" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>403</v>
+      </c>
+      <c r="E466" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>404</v>
+      </c>
+      <c r="E467" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E468" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>406</v>
+      </c>
+      <c r="E470" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E471" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>407</v>
+      </c>
+      <c r="E472" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E474" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>409</v>
+      </c>
+      <c r="E475" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>410</v>
+      </c>
+      <c r="E476" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>411</v>
+      </c>
+      <c r="E478" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>412</v>
+      </c>
+      <c r="E479" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E480" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>414</v>
+      </c>
+      <c r="E482" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E483" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>415</v>
+      </c>
+      <c r="E484" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="486" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>417</v>
+      </c>
+      <c r="E487" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="488" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>303</v>
+      </c>
+      <c r="E488" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="490" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>418</v>
+      </c>
+      <c r="E490" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="491" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>419</v>
+      </c>
+      <c r="E491" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E492" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>421</v>
+      </c>
+      <c r="E494" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="495" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E495" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>422</v>
+      </c>
+      <c r="E496" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="498" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="499" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>424</v>
+      </c>
+      <c r="E499" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="500" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>425</v>
+      </c>
+      <c r="E500" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="502" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>426</v>
+      </c>
+      <c r="E502" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="503" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>427</v>
+      </c>
+      <c r="E503" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="504" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E504" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="505" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="506" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>429</v>
+      </c>
+      <c r="E506" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E507" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>430</v>
+      </c>
+      <c r="E508" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E510" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>432</v>
+      </c>
+      <c r="E511" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="512" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>433</v>
+      </c>
+      <c r="E512" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>434</v>
+      </c>
+      <c r="E514" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>435</v>
+      </c>
+      <c r="E515" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E516" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>437</v>
+      </c>
+      <c r="E518" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E519" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>438</v>
+      </c>
+      <c r="E520" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E522" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>440</v>
+      </c>
+      <c r="E523" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>441</v>
+      </c>
+      <c r="E524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>442</v>
+      </c>
+      <c r="E526" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>443</v>
+      </c>
+      <c r="E527" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E528" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>445</v>
+      </c>
+      <c r="E530" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E531" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>446</v>
+      </c>
+      <c r="E532" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E534" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E535" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E536" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E538" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E539" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E540" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E542" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E543" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E544" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E592" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E594" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E595" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E596" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E598" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E599" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E600" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E602" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E603" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E604" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E606" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E607" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E608" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E610" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E611" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E612" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E614" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E615" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E616" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E618" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E619" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E620" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E622" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E623" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E624" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E626" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E627" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E628" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E630" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E631" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E632" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/chatbot replies.xlsx
+++ b/chatbot replies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="551">
   <si>
     <t>Decoded sequence: sos eos</t>
   </si>
@@ -794,120 +794,6 @@
     <t>Train data</t>
   </si>
   <si>
-    <t>Input sequence: sos agil in sao i personally find him the only one in aincrad arc who has a brain eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos my i eos</t>
-  </si>
-  <si>
-    <t>Input sequence: sos unravel kukuku eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos the my</t>
-  </si>
-  <si>
-    <t>Input sequence: sos damn this looks good eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos is was would</t>
-  </si>
-  <si>
-    <t>Input sequence: and tranquil also interesting how the title is in hiragana instead of katakana considering it s an english title eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos seems everyone the</t>
-  </si>
-  <si>
-    <t>Input sequence: been about a year and a half since i watched the first season so this is good for me eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos that seen holo</t>
-  </si>
-  <si>
-    <t>Input sequence: would ve been a few hours flight from japan to egypt into a journey that takes them 50 days eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: to how 2012 team</t>
-  </si>
-  <si>
-    <t>Input sequence: nt think i watched more currently airing stuff until durarara and the tatami galaxy aired like a year later eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: blood yowamushi my seriously   eos</t>
-  </si>
-  <si>
-    <t>Input sequence: any one else think this or can confirm or deny any common key factors thanks again pittman for hosting eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: and guess understand of</t>
-  </si>
-  <si>
-    <t>Input sequence: sos left side best except for rider got ta vote for rider eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: so maniac the all that eos</t>
-  </si>
-  <si>
-    <t>Input sequence: no tabi last exile and steamboy also the legend of korra if it does nt have to be anime eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos good</t>
-  </si>
-  <si>
-    <t>Input sequence: sos amazing article a lot of the points are the reasons why i love one piece so much eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: again can i   is</t>
-  </si>
-  <si>
-    <t>Input sequence: sos kurosaki ichigo http images5fanpopcomimagephotos29000000ichigowallpaperkurosakiichigo290694271024768jpg and kurosaki mea http staticzerochannetkurosakimeafull1689483jpg eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: ton koutarous   of on</t>
-  </si>
-  <si>
-    <t>Input sequence: sos as much as i do nt like recommending it rebuild of evangelion specifically 20 defrosts rei a lot eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: do think the</t>
-  </si>
-  <si>
-    <t>Input sequence: sos accelerator reason one way road eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos s i for</t>
-  </si>
-  <si>
-    <t>Input sequence: sos pina co lada kanie aisu kyuubu latifah eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos it my to</t>
-  </si>
-  <si>
-    <t>Input sequence: when you see an anime about cute little girls fighting in tanks do you have any other good example eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos is who but</t>
-  </si>
-  <si>
-    <t>Input sequence: time ever a couple of hours ago here s the thread https wwwredditcomrjapancomments464491the mythology behind ringu looking for movies eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: cowboy go that episode</t>
-  </si>
-  <si>
-    <t>Input sequence: sos crappily designed amagamithemed one that i should probably update but im way too lazy http myanimelistnetanimelistpeengwin eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: suggestions james i to going eos</t>
-  </si>
-  <si>
-    <t>Input sequence: why well it is nt like we are going to get the rest of the canon any time soon eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: myanimelistnetanime151re here amp i think</t>
-  </si>
-  <si>
     <t>Input sequence: sos kanie soya and sento isuzu hands down eos</t>
   </si>
   <si>
@@ -1376,69 +1262,12 @@
     <t>Decoded sequence: sos sos</t>
   </si>
   <si>
-    <t>Should have responded with: sos i did nt like oreimo but kuroneko was good eos</t>
-  </si>
-  <si>
     <t>Decoded sequence: sos the</t>
   </si>
   <si>
     <t>Should have responded with: ears in the later episodes no comment about the op and ed since i already forget what they are eos</t>
   </si>
   <si>
-    <t>Should have responded with: sos hype is real i was hoping this would get an adaption eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: sos great job i would definitely buy one if i had the money eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: sos excited for this can never have enough holo in my life eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: to see how french frenchington ends up joining the team and if they ever get to finish their meal eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: blood and yowamushi pedal at varying points and did nt finish them until a while after they had finished eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: and they are willing to understand once sora proves herself the characters are all real people not including fool eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: so maybe i can get some ideas from all of those who have already made their new style c eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: sos fma and gosick eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: again and i ll feel like i m back in the thick of the narrative such a wonderful manga eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: ton of koutarous but the presence of one https smediacacheak0pinimgcomoriginals1219ed1219ed717fc2bfce372759bba2fe1cfegif is enough to make it the most interesting party eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: do nt think she typifies the trope at least edit also of course shiraishi is best girl please op eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: sos shinsuke takasugi why s an eye for an eye eos</t>
-  </si>
-  <si>
-    <t>Decoded sequence: sos</t>
-  </si>
-  <si>
-    <t>Should have responded with: sos straight witches http iimgurcomwpovkuwjpg in outbreak company as a reference to strike witches eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: they wrote six potential plotprogression ideas and then rolled a die to determine which one they d go with eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: cowboy to a few friends also added the openings of cowboy bebop and noragami to my anime ost playlist eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: suggestions would be appreciated i ve been wondering what would make it easier to read some on the text eos</t>
-  </si>
-  <si>
-    <t>Should have responded with: myanimelistnetanime151re cutie honey short concentrated amp definitely be something that will make alot of people go a bit topsyturvy eos</t>
-  </si>
-  <si>
     <t>Should have responded with: this show and 50 holy shit just get some help you arrogant high school bastards gon na be good eos</t>
   </si>
   <si>
@@ -1722,6 +1551,132 @@
   </si>
   <si>
     <t>Target reply</t>
+  </si>
+  <si>
+    <t>would ve been a few hours flight from japan to egypt into a journey that takes them 50 days eos</t>
+  </si>
+  <si>
+    <t>nt think i watched more currently airing stuff until durarara and the tatami galaxy aired like a year later eos</t>
+  </si>
+  <si>
+    <t>any one else think this or can confirm or deny any common key factors thanks again pittman for hosting eos</t>
+  </si>
+  <si>
+    <t>sos left side best except for rider got ta vote for rider eos</t>
+  </si>
+  <si>
+    <t>no tabi last exile and steamboy also the legend of korra if it does nt have to be anime eos</t>
+  </si>
+  <si>
+    <t>sos amazing article a lot of the points are the reasons why i love one piece so much eos</t>
+  </si>
+  <si>
+    <t>sos kurosaki ichigo http images5fanpopcomimagephotos29000000ichigowallpaperkurosakiichigo290694271024768jpg and kurosaki mea http staticzerochannetkurosakimeafull1689483jpg eos</t>
+  </si>
+  <si>
+    <t>sos as much as i do nt like recommending it rebuild of evangelion specifically 20 defrosts rei a lot eos</t>
+  </si>
+  <si>
+    <t>sos accelerator reason one way road eos</t>
+  </si>
+  <si>
+    <t>sos pina co lada kanie aisu kyuubu latifah eos</t>
+  </si>
+  <si>
+    <t>when you see an anime about cute little girls fighting in tanks do you have any other good example eos</t>
+  </si>
+  <si>
+    <t>time ever a couple of hours ago here s the thread https wwwredditcomrjapancomments464491the mythology behind ringu looking for movies eos</t>
+  </si>
+  <si>
+    <t>sos crappily designed amagamithemed one that i should probably update but im way too lazy http myanimelistnetanimelistpeengwin eos</t>
+  </si>
+  <si>
+    <t>why well it is nt like we are going to get the rest of the canon any time soon eos</t>
+  </si>
+  <si>
+    <t>to how 2012 team</t>
+  </si>
+  <si>
+    <t>blood yowamushi my seriously   eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and guess understand of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> so maniac the all that eos</t>
+  </si>
+  <si>
+    <t>sos good</t>
+  </si>
+  <si>
+    <t>again can i   is</t>
+  </si>
+  <si>
+    <t>ton koutarous   of on</t>
+  </si>
+  <si>
+    <t>do think the</t>
+  </si>
+  <si>
+    <t>sos s i for</t>
+  </si>
+  <si>
+    <t>sos it my to</t>
+  </si>
+  <si>
+    <t>sos is who but</t>
+  </si>
+  <si>
+    <t>cowboy go that episode</t>
+  </si>
+  <si>
+    <t>suggestions james i to going eos</t>
+  </si>
+  <si>
+    <t>myanimelistnetanime151re here amp i think</t>
+  </si>
+  <si>
+    <t>to see how french frenchington ends up joining the team and if they ever get to finish their meal eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blood and yowamushi pedal at varying points and did nt finish them until a while after they had finished eos</t>
+  </si>
+  <si>
+    <t>and they are willing to understand once sora proves herself the characters are all real people not including fool eos</t>
+  </si>
+  <si>
+    <t>so maybe i can get some ideas from all of those who have already made their new style c eos</t>
+  </si>
+  <si>
+    <t>sos fma and gosick eos</t>
+  </si>
+  <si>
+    <t>again and i ll feel like i m back in the thick of the narrative such a wonderful manga eos</t>
+  </si>
+  <si>
+    <t>ton of koutarous but the presence of one https smediacacheak0pinimgcomoriginals1219ed1219ed717fc2bfce372759bba2fe1cfegif is enough to make it the most interesting party eos</t>
+  </si>
+  <si>
+    <t>do nt think she typifies the trope at least edit also of course shiraishi is best girl please op eos</t>
+  </si>
+  <si>
+    <t>sos shinsuke takasugi why s an eye for an eye eos</t>
+  </si>
+  <si>
+    <t>sos straight witches http iimgurcomwpovkuwjpg in outbreak company as a reference to strike witches eos</t>
+  </si>
+  <si>
+    <t>they wrote six potential plotprogression ideas and then rolled a die to determine which one they d go with eos</t>
+  </si>
+  <si>
+    <t>cowboy to a few friends also added the openings of cowboy bebop and noragami to my anime ost playlist eos</t>
+  </si>
+  <si>
+    <t>suggestions would be appreciated i ve been wondering what would make it easier to read some on the text eos</t>
+  </si>
+  <si>
+    <t>myanimelistnetanime151re cutie honey short concentrated amp definitely be something that will make alot of people go a bit topsyturvy eos</t>
   </si>
 </sst>
 </file>
@@ -2090,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E632"/>
+  <dimension ref="A2:E574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A229" sqref="A228:A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,7 +3789,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3846,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,13 +3809,13 @@
         <v>1</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,13 +3823,13 @@
         <v>2</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3882,13 +3837,13 @@
         <v>3</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3896,13 +3851,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,321 +3865,528 @@
         <v>5</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>6</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>7</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>8</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>9</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>10</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>11</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>12</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>13</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>14</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>15</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>16</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>17</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>18</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>19</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>20</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
         <v>256</v>
       </c>
-      <c r="E234" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
+      <c r="E236" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
         <v>257</v>
       </c>
-      <c r="E235" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
+      <c r="E237" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
         <v>258</v>
       </c>
-      <c r="E237" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
         <v>259</v>
       </c>
-      <c r="E238" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E239" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+      <c r="E240" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>261</v>
-      </c>
       <c r="E241" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
         <v>262</v>
       </c>
-      <c r="E243" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>262</v>
+      </c>
       <c r="E245" t="s">
-        <v>262</v>
+        <v>412</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
+        <v>263</v>
+      </c>
+      <c r="E246" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
         <v>264</v>
       </c>
-      <c r="E246" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>265</v>
-      </c>
-      <c r="E247" t="s">
-        <v>454</v>
+      <c r="E248" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
+        <v>265</v>
+      </c>
+      <c r="E249" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
         <v>266</v>
-      </c>
-      <c r="E249" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>267</v>
-      </c>
-      <c r="E250" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E251" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
+        <v>267</v>
+      </c>
+      <c r="E252" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>269</v>
-      </c>
-      <c r="E253" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
         <v>270</v>
       </c>
-      <c r="E255" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>268</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
+        <v>271</v>
+      </c>
+      <c r="E258" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>272</v>
       </c>
-      <c r="E258" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>273</v>
-      </c>
-      <c r="E259" t="s">
-        <v>457</v>
+      <c r="E260" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
+        <v>273</v>
+      </c>
+      <c r="E261" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>274</v>
-      </c>
-      <c r="E261" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>275</v>
-      </c>
-      <c r="E262" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E263" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
+        <v>275</v>
+      </c>
+      <c r="E264" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>277</v>
-      </c>
-      <c r="E265" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>278</v>
       </c>
-      <c r="E267" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
+        <v>279</v>
+      </c>
+      <c r="E270" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>280</v>
       </c>
-      <c r="E270" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>281</v>
-      </c>
-      <c r="E271" t="s">
-        <v>460</v>
+      <c r="E272" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
+        <v>281</v>
+      </c>
+      <c r="E273" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
         <v>282</v>
-      </c>
-      <c r="E273" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>283</v>
-      </c>
-      <c r="E274" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E275" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
+        <v>283</v>
+      </c>
+      <c r="E276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
-        <v>285</v>
-      </c>
-      <c r="E277" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>286</v>
-      </c>
-      <c r="E279" t="s">
-        <v>462</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
-        <v>287</v>
+      <c r="E280" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>169</v>
+      </c>
       <c r="E281" t="s">
-        <v>280</v>
+        <v>411</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
-        <v>285</v>
-      </c>
-      <c r="E283" t="s">
-        <v>463</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="E284" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.25">
@@ -4232,56 +4394,56 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>282</v>
+        <v>411</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+      <c r="E286" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
         <v>289</v>
-      </c>
-      <c r="E286" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E287" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>290</v>
       </c>
+      <c r="E288" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
+      <c r="E289" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
         <v>291</v>
       </c>
-      <c r="E289" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>292</v>
       </c>
-      <c r="E291" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
+      <c r="E292" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>286</v>
+        <v>411</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
@@ -4289,15 +4451,15 @@
         <v>294</v>
       </c>
       <c r="E294" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
         <v>295</v>
       </c>
-      <c r="E295" t="s">
-        <v>467</v>
+      <c r="E296" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
@@ -4305,536 +4467,473 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
+      <c r="E298" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>297</v>
-      </c>
-      <c r="E298" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E299" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>298</v>
       </c>
+      <c r="E300" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+      <c r="E301" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
         <v>299</v>
       </c>
-      <c r="E301" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>300</v>
       </c>
-      <c r="E303" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>301</v>
+      <c r="E304" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>169</v>
+      </c>
       <c r="E305" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E306" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
-        <v>303</v>
-      </c>
-      <c r="E307" t="s">
-        <v>469</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>301</v>
+      </c>
+      <c r="E308" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E309" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
-        <v>305</v>
-      </c>
       <c r="E310" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E311" t="s">
-        <v>470</v>
+      <c r="B311" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
-        <v>307</v>
-      </c>
-      <c r="E313" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E314" t="s">
-        <v>451</v>
+      <c r="B314" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>308</v>
-      </c>
-      <c r="E315" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E317" t="s">
-        <v>296</v>
+      <c r="B317" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>310</v>
-      </c>
-      <c r="E318" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
-        <v>311</v>
-      </c>
-      <c r="E319" t="s">
-        <v>472</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>312</v>
-      </c>
-      <c r="E321" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
-        <v>313</v>
-      </c>
-      <c r="E322" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E323" t="s">
-        <v>473</v>
+      <c r="B323" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
-        <v>315</v>
-      </c>
-      <c r="E325" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E326" t="s">
-        <v>451</v>
+      <c r="B326" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>316</v>
-      </c>
-      <c r="E327" t="s">
-        <v>474</v>
+        <v>312</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E329" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>318</v>
-      </c>
-      <c r="E330" t="s">
-        <v>449</v>
+        <v>314</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>319</v>
-      </c>
-      <c r="E331" t="s">
-        <v>475</v>
+        <v>315</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>320</v>
-      </c>
-      <c r="E333" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>321</v>
-      </c>
-      <c r="E334" t="s">
-        <v>451</v>
+        <v>317</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>476</v>
+        <v>295</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="E336" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E337" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E338" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="E339" t="s">
-        <v>477</v>
+        <v>297</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="E340" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>308</v>
+        <v>435</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>325</v>
-      </c>
-      <c r="E342" t="s">
-        <v>449</v>
+        <v>322</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E343" t="s">
-        <v>478</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E345" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>328</v>
-      </c>
-      <c r="E346" t="s">
-        <v>449</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>479</v>
+        <v>169</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="E348" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E349" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E350" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E351" t="s">
-        <v>480</v>
+        <v>301</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="E352" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>314</v>
+        <v>438</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>333</v>
-      </c>
-      <c r="E354" t="s">
-        <v>449</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E355" t="s">
-        <v>481</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E357" t="s">
-        <v>316</v>
+        <v>439</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>336</v>
-      </c>
-      <c r="E358" t="s">
-        <v>449</v>
+        <v>333</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>482</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="E360" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E361" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E362" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="E363" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>324</v>
+        <v>337</v>
+      </c>
+      <c r="E364" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>320</v>
+        <v>441</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>339</v>
-      </c>
-      <c r="E366" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E367" t="s">
-        <v>484</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E369" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>342</v>
-      </c>
-      <c r="E370" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>485</v>
+        <v>310</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>24</v>
+        <v>341</v>
+      </c>
+      <c r="E372" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E373" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E374" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E375" t="s">
-        <v>486</v>
+        <v>85</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="E376" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E378" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>347</v>
-      </c>
-      <c r="E379" t="s">
-        <v>487</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E381" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E382" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E383" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>85</v>
+        <v>349</v>
+      </c>
+      <c r="E384" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.25">
@@ -4842,56 +4941,56 @@
         <v>350</v>
       </c>
       <c r="E385" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
+      <c r="E386" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
         <v>351</v>
-      </c>
-      <c r="E386" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E387" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>352</v>
       </c>
+      <c r="E388" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
+      <c r="E389" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
         <v>353</v>
       </c>
-      <c r="E389" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>354</v>
       </c>
-      <c r="E391" t="s">
-        <v>490</v>
-      </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
+      <c r="E392" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.25">
@@ -4899,15 +4998,15 @@
         <v>356</v>
       </c>
       <c r="E394" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
         <v>357</v>
       </c>
-      <c r="E395" t="s">
-        <v>491</v>
+      <c r="E396" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
@@ -4915,56 +5014,56 @@
         <v>358</v>
       </c>
       <c r="E397" t="s">
-        <v>335</v>
+        <v>411</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
-        <v>359</v>
-      </c>
       <c r="E398" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E399" t="s">
-        <v>492</v>
+      <c r="B399" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>360</v>
       </c>
+      <c r="E400" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B401" t="s">
+      <c r="E401" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
         <v>361</v>
       </c>
-      <c r="E401" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>362</v>
       </c>
-      <c r="E403" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
+      <c r="E404" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>169</v>
+        <v>411</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.25">
@@ -4972,15 +5071,15 @@
         <v>364</v>
       </c>
       <c r="E406" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
         <v>365</v>
       </c>
-      <c r="E407" t="s">
-        <v>494</v>
+      <c r="E408" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.25">
@@ -4988,56 +5087,56 @@
         <v>366</v>
       </c>
       <c r="E409" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
+      <c r="E410" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
         <v>367</v>
-      </c>
-      <c r="E410" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E411" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>368</v>
       </c>
+      <c r="E412" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B413" t="s">
+      <c r="E413" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
         <v>369</v>
       </c>
-      <c r="E413" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>370</v>
       </c>
-      <c r="E415" t="s">
-        <v>496</v>
-      </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B416" t="s">
+      <c r="E416" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>24</v>
+        <v>411</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.25">
@@ -5045,15 +5144,15 @@
         <v>372</v>
       </c>
       <c r="E418" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
         <v>373</v>
       </c>
-      <c r="E419" t="s">
-        <v>497</v>
+      <c r="E420" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.25">
@@ -5061,72 +5160,72 @@
         <v>374</v>
       </c>
       <c r="E421" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
+      <c r="E422" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
         <v>375</v>
-      </c>
-      <c r="E422" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E423" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>23</v>
+        <v>376</v>
+      </c>
+      <c r="E424" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
-        <v>376</v>
-      </c>
       <c r="E425" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>377</v>
+      </c>
       <c r="E426" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>377</v>
-      </c>
-      <c r="E427" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
-        <v>378</v>
+      <c r="E428" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>379</v>
+      </c>
       <c r="E429" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="E430" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
         <v>380</v>
       </c>
-      <c r="E431" t="s">
-        <v>500</v>
+      <c r="E432" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.25">
@@ -5134,20 +5233,17 @@
         <v>381</v>
       </c>
       <c r="E433" t="s">
-        <v>85</v>
+        <v>411</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B434" t="s">
+      <c r="E434" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
         <v>382</v>
-      </c>
-      <c r="E434" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E435" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.25">
@@ -5155,33 +5251,38 @@
         <v>383</v>
       </c>
       <c r="E436" t="s">
-        <v>501</v>
+        <v>341</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B437" t="s">
+      <c r="E437" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>352</v>
+        <v>459</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>385</v>
       </c>
-      <c r="E439" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B440" t="s">
+      <c r="E440" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
         <v>386</v>
       </c>
-      <c r="E440" t="s">
-        <v>502</v>
+      <c r="E441" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.25">
@@ -5189,38 +5290,33 @@
         <v>387</v>
       </c>
       <c r="E442" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B443" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
         <v>388</v>
       </c>
-      <c r="E443" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>503</v>
+        <v>345</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>389</v>
       </c>
+      <c r="E445" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B446" t="s">
+      <c r="E446" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
         <v>390</v>
-      </c>
-      <c r="E446" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E447" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.25">
@@ -5228,33 +5324,38 @@
         <v>391</v>
       </c>
       <c r="E448" t="s">
-        <v>504</v>
+        <v>347</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B449" t="s">
+      <c r="E449" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>358</v>
+        <v>462</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>393</v>
       </c>
-      <c r="E451" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B452" t="s">
+      <c r="E452" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
         <v>394</v>
       </c>
-      <c r="E452" t="s">
-        <v>505</v>
+      <c r="E453" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.25">
@@ -5262,38 +5363,33 @@
         <v>395</v>
       </c>
       <c r="E454" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B455" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
         <v>396</v>
       </c>
-      <c r="E455" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>397</v>
       </c>
+      <c r="E457" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B458" t="s">
+      <c r="E458" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
         <v>398</v>
-      </c>
-      <c r="E458" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E459" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.25">
@@ -5301,33 +5397,38 @@
         <v>399</v>
       </c>
       <c r="E460" t="s">
-        <v>507</v>
+        <v>353</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B461" t="s">
+      <c r="E461" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>364</v>
+        <v>465</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>401</v>
       </c>
-      <c r="E463" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B464" t="s">
+      <c r="E464" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
         <v>402</v>
       </c>
-      <c r="E464" t="s">
-        <v>508</v>
+      <c r="E465" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.25">
@@ -5335,38 +5436,33 @@
         <v>403</v>
       </c>
       <c r="E466" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
         <v>404</v>
       </c>
-      <c r="E467" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E468" t="s">
-        <v>509</v>
+        <v>357</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>405</v>
       </c>
+      <c r="E469" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B470" t="s">
+      <c r="E470" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
         <v>406</v>
-      </c>
-      <c r="E470" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E471" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.25">
@@ -5374,752 +5470,400 @@
         <v>407</v>
       </c>
       <c r="E472" t="s">
-        <v>510</v>
+        <v>359</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B473" t="s">
+      <c r="E473" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E474" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
         <v>409</v>
       </c>
-      <c r="E475" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B476" t="s">
-        <v>410</v>
-      </c>
       <c r="E476" t="s">
-        <v>511</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E477" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B478" t="s">
-        <v>411</v>
-      </c>
       <c r="E478" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B479" t="s">
-        <v>412</v>
-      </c>
-      <c r="E479" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E480" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B481" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B482" t="s">
-        <v>414</v>
-      </c>
-      <c r="E482" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E483" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B484" t="s">
-        <v>415</v>
-      </c>
-      <c r="E484" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B485" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E486" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B487" t="s">
-        <v>417</v>
-      </c>
-      <c r="E487" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B488" t="s">
-        <v>303</v>
-      </c>
-      <c r="E488" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B490" t="s">
-        <v>418</v>
-      </c>
-      <c r="E490" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B491" t="s">
-        <v>419</v>
-      </c>
-      <c r="E491" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E492" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B493" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B494" t="s">
-        <v>421</v>
-      </c>
-      <c r="E494" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E495" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B496" t="s">
-        <v>422</v>
-      </c>
-      <c r="E496" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B497" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E498" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B499" t="s">
-        <v>424</v>
-      </c>
-      <c r="E499" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B500" t="s">
-        <v>425</v>
-      </c>
-      <c r="E500" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B502" t="s">
-        <v>426</v>
-      </c>
-      <c r="E502" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B503" t="s">
-        <v>427</v>
-      </c>
-      <c r="E503" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E504" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="505" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B505" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B506" t="s">
-        <v>429</v>
-      </c>
-      <c r="E506" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="507" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E507" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B508" t="s">
-        <v>430</v>
-      </c>
-      <c r="E508" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="509" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B509" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="510" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E510" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="511" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B511" t="s">
-        <v>432</v>
-      </c>
-      <c r="E511" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="512" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B512" t="s">
-        <v>433</v>
-      </c>
-      <c r="E512" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B514" t="s">
-        <v>434</v>
-      </c>
-      <c r="E514" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="515" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B515" t="s">
-        <v>435</v>
-      </c>
-      <c r="E515" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="516" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E516" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="517" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B517" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="518" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B518" t="s">
-        <v>437</v>
-      </c>
-      <c r="E518" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="519" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E519" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="520" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B520" t="s">
-        <v>438</v>
-      </c>
-      <c r="E520" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="521" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B521" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="522" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E522" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="523" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B523" t="s">
-        <v>440</v>
-      </c>
-      <c r="E523" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="524" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B524" t="s">
-        <v>441</v>
-      </c>
-      <c r="E524" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="526" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B526" t="s">
-        <v>442</v>
-      </c>
-      <c r="E526" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="527" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B527" t="s">
-        <v>443</v>
-      </c>
-      <c r="E527" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="528" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E528" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="529" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B529" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="530" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B530" t="s">
-        <v>445</v>
-      </c>
-      <c r="E530" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="531" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E531" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="532" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B532" t="s">
-        <v>446</v>
-      </c>
-      <c r="E532" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="533" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B533" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="534" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E534" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="535" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E535" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="536" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E536" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="538" spans="2:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E538" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="539" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E539" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="540" spans="2:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E540" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="542" spans="2:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E542" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="543" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E543" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="544" spans="2:5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E544" t="s">
-        <v>528</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="546" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E546" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E547" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
     </row>
     <row r="548" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E548" t="s">
-        <v>529</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="550" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E550" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E551" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
     </row>
     <row r="552" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E552" t="s">
-        <v>530</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="554" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E554" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E555" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
     </row>
     <row r="556" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E556" t="s">
-        <v>531</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="558" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E558" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E559" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
     </row>
     <row r="560" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E560" t="s">
-        <v>532</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="562" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E562" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E563" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="564" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E564" t="s">
-        <v>533</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="566" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E566" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E567" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
     </row>
     <row r="568" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E568" t="s">
-        <v>534</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="570" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E570" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E571" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
     </row>
     <row r="572" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E572" t="s">
-        <v>535</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="574" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E574" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E575" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E576" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E578" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E579" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E580" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E582" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E583" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E584" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E586" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E587" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E588" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E590" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E591" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E592" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E594" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E595" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E596" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E598" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E599" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E600" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E602" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E603" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E604" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E606" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E607" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E608" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E610" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E611" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E612" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E614" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E615" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E616" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E618" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E619" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E620" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E622" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E623" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E624" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E626" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E627" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E628" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E630" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E631" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E632" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
